--- a/石田関係/クモ仕様書.xlsx
+++ b/石田関係/クモ仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="14" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7575" tabRatio="793" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="5" r:id="rId1"/>
@@ -30717,7 +30717,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -30867,8 +30867,8 @@
   </sheetPr>
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
